--- a/docs/PTA2_DDC_100/PTA2_DDC_100_30.07.24d_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_30.07.24d_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731788944.1806402</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731788944.4562802</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788944.1806402.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788944.4562802.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>286.58</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>285.86</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.7199999999999704</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731788944.47023</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731788944.5605297</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788944.47023.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788944.5605297.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>285.86</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>286.24</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731788944.5994246</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731788944.864147</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788944.5994246.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788944.864147.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>286.87</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>285.65</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.220000000000027</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731788945.9910932</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731788949.5160875</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788945.9910932.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788949.5160875.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>287.26</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>287.39</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.1299999999999955</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731788951.8554611</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731788959.1417143</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788951.8554611.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788959.1417143.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>288.49</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>289.42</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.9300000000000068</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -799,95 +845,107 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731788960.526874</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731788960.526874.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731788960.526874.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>290.2</v>
       </c>
-      <c r="J8" t="n">
-        <v>290.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>290.84</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.6399999999999864</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731788961.9030902</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731788962.1293633</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788961.9030902.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788962.1293633.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>131.81</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>130.97</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.8400000000000034</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731788962.2755258</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731788962.6434386</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788962.2755258.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788962.6434386.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>130.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>131.3</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731788963.0811415</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731788965.2128365</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788963.0811415.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788965.2128365.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>132.31</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>131.52</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.789999999999992</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731788968.387289</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731788971.0368834</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788968.387289.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788971.0368834.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>132.68</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>132.61</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731788971.2216902</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731788971.8248827</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788971.2216902.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788971.8248827.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>132.33</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>132.8</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.4699999999999989</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731788971.9214692</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731788974.920738</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788971.9214692.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788974.920738.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>133.13</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>133.56</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.4300000000000068</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731788977.153576</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731788977.8113432</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788977.153576.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788977.8113432.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>133</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>133.35</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.3499999999999943</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731788978.1183255</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731788978.406878</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788978.1183255.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788978.406878.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6727.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6719.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>8</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731788978.5023534</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731788978.6065392</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788978.5023534.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788978.6065392.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6754.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6735</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>19.5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731788978.7295318</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731788979.437824</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788978.7295318.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788979.437824.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6710</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6733.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>23.5</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731788981.8351655</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731788982.3606675</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788981.8351655.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788982.3606675.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6762</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6738.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>23.5</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731788983.5794516</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731788985.1882193</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788983.5794516.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788985.1882193.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6721</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6745.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>24.5</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731788985.9756927</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731788990.9376335</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788985.9756927.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788990.9376335.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6775</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6804</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-29</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731788992.3036172</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731788994.312778</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788992.3036172.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788994.312778.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6790</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6795</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>5</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731788994.359658</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731788994.487338</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788994.359658.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788994.487338.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6809.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6793.5</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>16</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731788996.6219087</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731788996.661017</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788996.6219087.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788996.661017.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>502.45</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>502.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.05000000000001137</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731788996.7019107</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731788996.880456</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788996.7019107.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788996.880456.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>504.3</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>501.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>2.5</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731788996.9751148</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731788997.453874</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788996.9751148.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788997.453874.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>496.95</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>502.6</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>5.650000000000034</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>1.14</v>
       </c>
     </row>
@@ -1779,51 +1939,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731788997.9488568</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731789001.301362</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788997.9488568.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731789001.301362.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>504.9</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>502.8</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>2.099999999999966</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1831,51 +1997,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731789003.2944698</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731789007.2922707</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731789003.2944698.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731789007.2922707.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>507.25</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>509.05</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-1.800000000000011</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -1883,51 +2055,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731789007.935878</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731789010.175347</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731789007.935878.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731789010.175347.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>511.2</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>510.75</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.4499999999999886</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1935,51 +2113,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731789011.7143898</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731789012.159338</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731789011.7143898.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731789012.159338.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>513.3</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>511.85</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>1.449999999999932</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1987,51 +2171,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731789012.1993103</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731789013.3086843</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731789012.1993103.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731789013.3086843.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>510.05</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>511.4</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>1.349999999999966</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2039,51 +2229,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731789014.894725</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731789015.1870227</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789014.894725.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789015.1870227.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1020.8</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1023.6</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>2.800000000000068</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2091,51 +2287,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731789015.2249227</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731789015.3922086</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789015.2249227.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789015.3922086.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1028.2</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1023.2</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -2143,51 +2345,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731789015.4979205</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731789015.9617891</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789015.4979205.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789015.9617891.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1016.8</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1024.8</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>8</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -2195,51 +2403,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731789016.4184763</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731789019.3346493</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789016.4184763.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789019.3346493.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1030.8</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1028.2</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>2.599999999999909</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2247,51 +2461,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731789020.4764986</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731789022.8656561</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789020.4764986.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789022.8656561.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1037.8</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1036.4</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>1.399999999999864</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2299,51 +2519,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731789025.0153637</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731789028.321481</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789025.0153637.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789028.321481.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1042.6</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1048.8</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-6.200000000000045</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.59</v>
       </c>
     </row>
@@ -2351,51 +2577,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731789028.6640952</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731789028.8878124</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789028.6640952.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789028.8878124.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1044</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1047.4</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>3.400000000000091</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2403,51 +2635,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731789031.129481</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731789031.3599372</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789031.129481.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789031.3599372.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>125.32</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>125.14</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.1799999999999926</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2455,51 +2693,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731789031.485802</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731789031.9567819</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789031.485802.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789031.9567819.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>124.92</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>124.9</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2507,51 +2751,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731789034.3571467</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731789035.7642972</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789034.3571467.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789035.7642972.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>125.62</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>125.06</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -2559,51 +2809,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731789037.4228265</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731789040.9375215</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789037.4228265.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789040.9375215.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>125.9</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>126.36</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.4599999999999937</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -2611,51 +2867,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731789041.7593508</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731789042.4853854</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789041.7593508.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789042.4853854.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>126.94</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>126.78</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2663,51 +2925,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731789042.812263</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731789044.399739</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789042.812263.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789044.399739.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>127.54</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>127.1</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.4400000000000119</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2715,51 +2983,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731789044.886517</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731789045.4697542</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789044.886517.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789045.4697542.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>127.6</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>127.06</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.539999999999992</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -2767,51 +3041,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731789045.6237674</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731789045.8772879</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789045.6237674.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731789045.8772879.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>126.76</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>126.88</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.1199999999999903</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2819,95 +3099,107 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731789048.016019</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731789048.016019.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731789048.016019.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>127.82</v>
       </c>
-      <c r="J47" t="n">
-        <v>127.82</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>127.58</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.2399999999999949</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731789048.488993</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731789048.5545292</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789048.488993.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789048.5545292.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>162.8</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>163.34</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.539999999999992</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2915,51 +3207,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731789048.5684896</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731789048.9037063</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789048.5684896.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789048.9037063.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>163.34</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>164.06</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.7199999999999989</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -2967,51 +3265,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731789049.1292758</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731789049.5018537</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789049.1292758.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789049.5018537.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>162.82</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>164.06</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>1.240000000000009</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -3019,51 +3323,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731789053.9151616</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731789055.168185</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789053.9151616.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789055.168185.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>165.68</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>164.96</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.7199999999999989</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -3071,51 +3381,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731789056.0111716</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731789056.5716062</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789056.0111716.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789056.5716062.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>165.82</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>165.18</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.6399999999999864</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -3123,51 +3439,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731789057.4148283</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731789057.5977829</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789057.4148283.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789057.5977829.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>164.8</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>165.36</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -3175,51 +3497,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731789057.8519835</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731789062.333616</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789057.8519835.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789062.333616.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>166.66</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>166.86</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.2000000000000171</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -3227,95 +3555,107 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731789062.9283648</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731789062.9283648.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731789062.9283648.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>166.5</v>
       </c>
-      <c r="J55" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>165.86</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.6399999999999864</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731789064.9012804</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731789065.1198194</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789064.9012804.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789065.1198194.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>51.635</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>51.535</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3323,51 +3663,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731789065.2154155</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731789066.1182725</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789065.2154155.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789066.1182725.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>51.255</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>51.53</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.2749999999999986</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -3375,51 +3721,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731789072.7459402</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731789073.0508838</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789072.7459402.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789073.0508838.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>51.265</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>51.11</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.1550000000000011</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3427,51 +3779,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731789074.7353365</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731789075.183787</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789074.7353365.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789075.183787.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>51.315</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>51.205</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -3479,51 +3837,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731789078.5409424</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731789079.779299</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789078.5409424.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789079.779299.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>51.28</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>51.4</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.1199999999999974</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -3531,51 +3895,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731789080.0024173</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731789081.319125</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789080.0024173.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789081.319125.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>51.155</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>51.465</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -3583,51 +3953,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731789082.6782925</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731789082.7816973</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789082.6782925.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789082.7816973.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1402.8</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1412.4</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>9.600000000000136</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -3635,51 +4011,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731789082.7966573</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731789083.2392726</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789082.7966573.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789083.2392726.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1412.4</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1407.6</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>4.800000000000182</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -3687,51 +4069,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731789083.5378122</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731789087.8163178</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789083.5378122.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789087.8163178.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>1415</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1418.2</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-3.200000000000045</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -3739,51 +4127,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731789091.8587036</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731789092.275017</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789091.8587036.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789092.275017.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1421.6</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1419.8</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3791,51 +4185,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731789094.2649484</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731789096.6597033</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789094.2649484.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789096.6597033.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>1418.2</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>1419.2</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3843,51 +4243,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731789096.804896</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731789097.481791</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789096.804896.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789097.481791.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>1418</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>1420</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>2</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3895,51 +4301,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731789097.4967508</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731789097.778184</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789097.4967508.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789097.778184.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>1420</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>1419.8</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3947,51 +4359,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731789098.7958505</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731789098.8983204</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789098.7958505.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789098.8983204.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>59.81</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>59.96</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.1499999999999986</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3999,51 +4417,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731789098.9560966</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731789099.125873</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789098.9560966.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789099.125873.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>60.03</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>59.86</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4051,51 +4475,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731789099.749914</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731789100.0161886</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789099.749914.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789100.0161886.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>60.16</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>59.92</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.2399999999999949</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -4103,51 +4533,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731789100.700984</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731789103.6083422</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789100.700984.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789103.6083422.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>60.56</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>60.32</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.240000000000002</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -4155,51 +4591,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731789106.3224201</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731789107.8025985</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789106.3224201.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789107.8025985.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>60.81</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>60.56</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.25</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -4207,51 +4649,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731789109.5453448</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731789109.9315445</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789109.5453448.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789109.9315445.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>60.91</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>60.78</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -4259,51 +4707,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731789113.4014761</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731789113.7436302</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789113.4014761.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789113.7436302.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>60.58</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>60.76</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4311,51 +4765,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731789117.6344204</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731789117.8356962</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SELG1731789117.6344204.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SELG1731789117.8356962.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>56.27</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>55.91</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.3600000000000065</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -4363,51 +4823,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731789117.9332726</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731789118.411253</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731789117.9332726.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731789118.411253.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>55.74</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>56.12</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -4415,51 +4881,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731789118.9381056</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731789127.8547132</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SELG1731789118.9381056.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SELG1731789127.8547132.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>56.35</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>56.85</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>-0.89</v>
       </c>
     </row>
@@ -4467,51 +4939,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731789131.736756</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731789132.8970652</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SELG1731789131.736756.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SELG1731789132.8970652.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>56.7</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>56.81</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -4519,51 +4997,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731789134.0319216</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731789134.3923707</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731789134.0319216.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731789134.3923707.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>141.34</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>141.28</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4571,51 +5055,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731789138.7252057</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731789140.3885949</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731789138.7252057.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731789140.3885949.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>140.82</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>141.68</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.8600000000000136</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -4623,51 +5113,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731789146.605293</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731789148.4988463</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731789146.605293.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731789148.4988463.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>141.9</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>141.36</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.539999999999992</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -4675,51 +5171,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731789149.97173</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731789150.0367773</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731789149.97173.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731789150.0367773.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>51.88</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>51.89</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4727,51 +5229,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731789150.077438</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731789150.2546742</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731789150.077438.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731789150.2546742.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>52.32</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>51.74</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.5799999999999983</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>1.11</v>
       </c>
     </row>
@@ -4779,51 +5287,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731789150.5415158</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731789150.8119595</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731789150.5415158.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731789150.8119595.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>51.03</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>52.13</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>1.100000000000001</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>2.16</v>
       </c>
     </row>
@@ -4831,51 +5345,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731789150.8506722</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731789158.5562255</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731789150.8506722.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731789158.5562255.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>52.58</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>53.56</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.980000000000004</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>-1.86</v>
       </c>
     </row>
@@ -4883,51 +5403,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731789160.2848063</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731789162.1941268</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731789160.2848063.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731789162.1941268.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>53.49</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>53.6</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -4935,51 +5461,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731789163.140983</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731789164.802868</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731789163.140983.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731789164.802868.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>53.81</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>53.76</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.05000000000000426</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -4987,51 +5519,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731789167.597142</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731789167.7178388</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731789167.597142.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731789167.7178388.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>363.41</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>367.23</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>3.819999999999993</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>1.05</v>
       </c>
     </row>
@@ -5039,51 +5577,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731789167.853587</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731789167.9499247</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731789167.853587.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731789167.9499247.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>367.68</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>364.03</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>3.650000000000034</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.9900000000000001</v>
       </c>
     </row>
@@ -5091,51 +5635,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731789169.423239</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731789178.4152904</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731789169.423239.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731789178.4152904.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>368.93</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>370.65</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-1.71999999999997</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>-0.47</v>
       </c>
     </row>
@@ -5143,51 +5693,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731789180.5867844</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731789181.748461</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731789180.5867844.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731789181.748461.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>372.4</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>372.73</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-0.3300000000000409</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -5195,51 +5751,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731789184.7204309</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731789184.8034172</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/FEES1731789184.7204309.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/FEES1731789184.8034172.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>0.09546</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>0.09594000000000001</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.0004800000000000082</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -5247,51 +5809,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731789185.03334</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731789185.1885822</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/FEES1731789185.03334.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/FEES1731789185.1885822.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>0.09544000000000001</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>0.09616000000000001</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.0007199999999999984</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -5299,51 +5867,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731789189.5559993</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731789192.340596</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/FEES1731789189.5559993.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/FEES1731789192.340596.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>0.0965</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>0.09686</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.0003599999999999992</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -5351,95 +5925,107 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731789196.8577695</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731789196.8577695.png</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731789196.8577695.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>0.09728000000000001</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.09728000000000001</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>0.09762</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-0.0003399999999999931</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731789198.4592335</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731789198.5203872</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789198.4592335.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789198.5203872.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>2980.6</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>2988.65</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>8.050000000000182</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -5447,51 +6033,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731789198.5353475</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731789198.812417</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789198.5353475.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789198.812417.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>2988.65</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>2980.45</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>8.200000000000273</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -5499,51 +6091,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731789198.852856</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731789199.3003922</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789198.852856.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789199.3003922.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>2977.3</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>2982.25</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>4.949999999999818</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -5551,51 +6149,57 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731789199.8269224</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731789203.4670005</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789199.8269224.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789203.4670005.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>2992.25</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>2995.7</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>-3.449999999999818</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -5603,51 +6207,57 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731789205.1318622</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731789208.4855378</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789205.1318622.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789208.4855378.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>3007.8</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>3010.15</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>-2.349999999999909</v>
       </c>
-      <c r="L101" t="n">
+      <c r="N101" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -5655,51 +6265,57 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731789209.631587</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731789210.2050786</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789209.631587.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789210.2050786.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>3020</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>3013</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>7</v>
       </c>
-      <c r="L102" t="n">
+      <c r="N102" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -5707,51 +6323,57 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731789212.7917476</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731789213.103459</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789212.7917476.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789213.103459.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>3020.9</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>3015.85</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>5.050000000000182</v>
       </c>
-      <c r="L103" t="n">
+      <c r="N103" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -5759,51 +6381,57 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731789213.4554613</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731789213.8336236</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789213.4554613.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789213.8336236.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>3012.2</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>3015.45</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>3.25</v>
       </c>
-      <c r="L104" t="n">
+      <c r="N104" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -5811,51 +6439,57 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731789215.4451213</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731789215.7340312</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789215.4451213.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/MXI1731789215.7340312.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>3022.3</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>3013.35</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>8.950000000000273</v>
       </c>
-      <c r="L105" t="n">
+      <c r="N105" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -5863,95 +6497,107 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731789215.9701388</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731789215.9701388.png</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731789215.9701388.png</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>3025.3</v>
       </c>
-      <c r="J106" t="n">
-        <v>3025.3</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>3023.35</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1.950000000000273</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731789216.4588902</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731789217.3129175</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731789216.4588902.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731789217.3129175.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>34.45</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>34.435</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>-0.01500000000000057</v>
       </c>
-      <c r="L107" t="n">
+      <c r="N107" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -5959,51 +6605,57 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731789222.5519857</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731789224.3695812</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731789222.5519857.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731789224.3695812.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>34.675</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>34.62</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>0.05499999999999972</v>
       </c>
-      <c r="L108" t="n">
+      <c r="N108" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -6011,51 +6663,57 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731789225.371096</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731789226.3371522</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731789225.371096.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731789226.3371522.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>34.925</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>34.73</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>0.1950000000000003</v>
       </c>
-      <c r="L109" t="n">
+      <c r="N109" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -6063,51 +6721,57 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731789226.9170074</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731789229.6523461</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731789226.9170074.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731789229.6523461.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>34.58</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>34.66</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L110" t="n">
+      <c r="N110" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -6115,51 +6779,57 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731789230.1235883</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731789232.446899</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731789230.1235883.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731789232.446899.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>34.585</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>34.595</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L111" t="n">
+      <c r="N111" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -6167,51 +6837,57 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731789233.936143</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731789234.1593966</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/TATN1731789233.936143.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/TATN1731789234.1593966.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>652</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>647.6</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>4.399999999999977</v>
       </c>
-      <c r="L112" t="n">
+      <c r="N112" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -6219,51 +6895,57 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731789234.2586396</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1731789235.1600862</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/TATN1731789234.2586396.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/TATN1731789235.1600862.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>644.9</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>647.5</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>2.600000000000023</v>
       </c>
-      <c r="L113" t="n">
+      <c r="N113" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -6271,51 +6953,57 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731789244.0960383</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731789244.5428016</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/TATN1731789244.0960383.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/TATN1731789244.5428016.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>647.4</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>648.5</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>1.100000000000023</v>
       </c>
-      <c r="L114" t="n">
+      <c r="N114" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -6323,51 +7011,57 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731789245.3168063</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731789245.7256024</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/TATN1731789245.3168063.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/TATN1731789245.7256024.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>649.8</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>648.8</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
-      <c r="L115" t="n">
+      <c r="N115" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -6375,51 +7069,57 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731789246.7389667</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731789250.6976235</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/TATN1731789246.7389667.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/TATN1731789250.6976235.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>647.2</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>643</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>-4.200000000000045</v>
       </c>
-      <c r="L116" t="n">
+      <c r="N116" t="n">
         <v>-0.65</v>
       </c>
     </row>
@@ -6481,19 +7181,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.650000000001</v>
+        <v>41.60000000000127</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>3.9650000000001</v>
+        <v>4.160000000000127</v>
       </c>
       <c r="E2" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="F2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -6503,19 +7203,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.519999999999996</v>
+        <v>1.759999999999991</v>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1688888888888884</v>
+        <v>0.1955555555555545</v>
       </c>
       <c r="E3" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="F3" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -6525,19 +7225,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.779999999999973</v>
+        <v>2.139999999999986</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3474999999999966</v>
+        <v>0.2674999999999983</v>
       </c>
       <c r="E4" t="n">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="F4" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5">
@@ -6679,19 +7379,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.259999999999991</v>
+        <v>0.6200000000000045</v>
       </c>
       <c r="C11" t="n">
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2099999999999985</v>
+        <v>0.1033333333333341</v>
       </c>
       <c r="E11" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="12">
@@ -6789,19 +7489,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0008400000000000074</v>
+        <v>0.0005000000000000143</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0002100000000000019</v>
+        <v>0.0001250000000000036</v>
       </c>
       <c r="E16" t="n">
-        <v>0.88</v>
+        <v>0.53</v>
       </c>
       <c r="F16" t="n">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="17">
